--- a/Projects/PEPSICOUK/Tests/Data/display_template.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/display_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -50,7 +51,7 @@
     <t xml:space="preserve">use bin to separate display</t>
   </si>
   <si>
-    <t xml:space="preserve">g. Half Pallet</t>
+    <t xml:space="preserve">HO Agreed Half Pallet</t>
   </si>
   <si>
     <t xml:space="preserve">Bin</t>
@@ -68,7 +69,7 @@
     <t xml:space="preserve">l. Stacking Tray</t>
   </si>
   <si>
-    <t xml:space="preserve">o. Full Pallet</t>
+    <t xml:space="preserve">HO Agreed Full Pallet</t>
   </si>
   <si>
     <t xml:space="preserve">h. Tesco Express Wire Bins</t>
@@ -201,6 +202,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -296,15 +298,15 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
